--- a/data/trans_dic/P1419-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1419-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.01889422699146932</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05401054451790701</v>
+        <v>0.05401054451790702</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1323110415191643</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04097971457421351</v>
+        <v>0.04070219380723571</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007772358933920021</v>
+        <v>0.006974397457068982</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01185858288943767</v>
+        <v>0.01249472805557117</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03708278781898194</v>
+        <v>0.03614604406014224</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1101107712409296</v>
+        <v>0.1108137973204332</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07887635045503705</v>
+        <v>0.07799449994319028</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0603145668447653</v>
+        <v>0.06119102448907857</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1107346772826891</v>
+        <v>0.1130017843395572</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08892987168371519</v>
+        <v>0.08895858817597638</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04617550616284827</v>
+        <v>0.04623236969930297</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03981945399882179</v>
+        <v>0.03962564033594139</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08238407838443368</v>
+        <v>0.08519509376208788</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08169476748160032</v>
+        <v>0.08217294887034848</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02563082832145355</v>
+        <v>0.02562851932162609</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0275874750688969</v>
+        <v>0.02856130320740419</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07598548761502602</v>
+        <v>0.07831773978862717</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1557243154098971</v>
+        <v>0.1578097462495736</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1144133016317835</v>
+        <v>0.1152671390162203</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09228310523018586</v>
+        <v>0.09325515059327878</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1588591202791816</v>
+        <v>0.1576303498898168</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1197100049624573</v>
+        <v>0.12042835295427</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06686275104964989</v>
+        <v>0.06551911890233846</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05872794121061503</v>
+        <v>0.05800596281790461</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.113721377643769</v>
+        <v>0.1169291710495587</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.0469602028265912</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06972714703809918</v>
+        <v>0.06972714703809919</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01654847553101479</v>
+        <v>0.01674016714161115</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006638214941544907</v>
+        <v>0.007118196471639215</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01349623142844397</v>
+        <v>0.01382131848869898</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02620213685394473</v>
+        <v>0.02638542833235349</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09091707325084046</v>
+        <v>0.09126939687539656</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0750967424158217</v>
+        <v>0.07451189399016071</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0535797667616152</v>
+        <v>0.05292472522399618</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08358097436810848</v>
+        <v>0.08571600332689391</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05581541828816658</v>
+        <v>0.05672632787494961</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04569987538229692</v>
+        <v>0.04406470990215139</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03822752114733075</v>
+        <v>0.03808547623279968</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06068606179809408</v>
+        <v>0.06105938148097273</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03626242445365887</v>
+        <v>0.03543321342970628</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02077754368811161</v>
+        <v>0.02243484434327942</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03330476925972622</v>
+        <v>0.03461517269546151</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04869576416989656</v>
+        <v>0.04919629293915868</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1295107352538121</v>
+        <v>0.1302160624982479</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1109855764788066</v>
+        <v>0.1113346212570257</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08707452582764964</v>
+        <v>0.08766692289087043</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.112951847766651</v>
+        <v>0.1136292828177304</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07724789039220642</v>
+        <v>0.07876237492569982</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06481901451275479</v>
+        <v>0.06419897930008826</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0584137940799541</v>
+        <v>0.05782294663110633</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07935973064710107</v>
+        <v>0.08027287901791118</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.04507878904132889</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09115164013791895</v>
+        <v>0.09115164013791893</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04687111459648778</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0146201315411621</v>
+        <v>0.01400287707666359</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003405660076671731</v>
+        <v>0.003531076351975983</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002745588549504554</v>
+        <v>0.003057185740654173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01964382498853846</v>
+        <v>0.01919550497853979</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05957160455913485</v>
+        <v>0.05944015163612881</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04864331078188379</v>
+        <v>0.04951641772269473</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02938888262614258</v>
+        <v>0.03013462283735986</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07861115654608676</v>
+        <v>0.07776087568355068</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03829827959738875</v>
+        <v>0.03826719092371379</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02860218462925948</v>
+        <v>0.02901497037105441</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01794837103268454</v>
+        <v>0.01863783398755966</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05050698337821131</v>
+        <v>0.05043707054347228</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03207789701456016</v>
+        <v>0.03308062428059994</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0164069794643087</v>
+        <v>0.01804244633736329</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01709429726422257</v>
+        <v>0.01581463730521266</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04019169500164088</v>
+        <v>0.03972332686387502</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09231902710653876</v>
+        <v>0.09200952166611284</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08248670976052552</v>
+        <v>0.08347587165147481</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06235875018660675</v>
+        <v>0.0640971494530987</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1064664463878609</v>
+        <v>0.1064027728986988</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05663468000406237</v>
+        <v>0.05682252699535251</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04684806218853869</v>
+        <v>0.04708980362158142</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03480191531362006</v>
+        <v>0.03558645494904131</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06875575067746889</v>
+        <v>0.06765570997742863</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.00649402696426685</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.04406885605963885</v>
+        <v>0.04406885605963884</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1271561766871646</v>
@@ -1093,7 +1093,7 @@
         <v>0.03318019130910255</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1231007354555076</v>
+        <v>0.1231007354555077</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.06995270443094802</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01360783357733899</v>
+        <v>0.01449761824613324</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004098216362376122</v>
+        <v>0.004120039581122475</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03185026376241276</v>
+        <v>0.03301514416091925</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09253552826817976</v>
+        <v>0.09374162779017597</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04930253489364239</v>
+        <v>0.05026354882247192</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01757140440984505</v>
+        <v>0.01809543533723436</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1084793734591852</v>
+        <v>0.1068476739262165</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05327615065303446</v>
+        <v>0.05393411101132518</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03037716084611529</v>
+        <v>0.02824945473814109</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01097708658790018</v>
+        <v>0.0110722477187531</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07279534340388659</v>
+        <v>0.07120884312054385</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0453861107646512</v>
+        <v>0.04727651911428666</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02370100731010412</v>
+        <v>0.02334357899137992</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02285463988572439</v>
+        <v>0.0210855217114025</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05711644467589277</v>
+        <v>0.05766112369344764</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1666846045669599</v>
+        <v>0.1705128934269398</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1040426501542146</v>
+        <v>0.1093984404653053</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05560407630987187</v>
+        <v>0.05570414579710796</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1449364688287971</v>
+        <v>0.1418059216308899</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0907889377235656</v>
+        <v>0.08919894291863806</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05945621103343244</v>
+        <v>0.0556320526569727</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03321675804691769</v>
+        <v>0.03276784767209805</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09391390841326824</v>
+        <v>0.0930453663835341</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.03870222892871157</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.07451285171804251</v>
+        <v>0.07451285171804252</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02493401919583968</v>
+        <v>0.02450307739014372</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008293095972938707</v>
+        <v>0.00800714402624517</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01169538758811755</v>
+        <v>0.01152068701241499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03216903297885212</v>
+        <v>0.03231715598657071</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09659698633894971</v>
+        <v>0.09700889913783611</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07561074669363162</v>
+        <v>0.07504244138845169</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05224493562498061</v>
+        <v>0.05348749115809624</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1000797620123717</v>
+        <v>0.1002058398306181</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06282686188133579</v>
+        <v>0.06212168282358149</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04358212918828771</v>
+        <v>0.04332611762886757</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03389338557972882</v>
+        <v>0.03364542398168541</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06939574459649073</v>
+        <v>0.06919205537905919</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03665120790523202</v>
+        <v>0.03680063960932702</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01632577537598038</v>
+        <v>0.01654470000991728</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01994221187681016</v>
+        <v>0.01970235349856506</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04509832330271937</v>
+        <v>0.04492053575869322</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.119090987319039</v>
+        <v>0.1179968359611852</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09468739237939743</v>
+        <v>0.09402393041868143</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07034986940777509</v>
+        <v>0.07069987356858951</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1177531263190737</v>
+        <v>0.1171127501388184</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07549089671607269</v>
+        <v>0.07501634767714653</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05376138105121425</v>
+        <v>0.05429023347103144</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04406161913531073</v>
+        <v>0.04370903716548295</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08011488256037559</v>
+        <v>0.07969586104176261</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23938</v>
+        <v>23776</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8114</v>
+        <v>7281</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13376</v>
+        <v>14094</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18462</v>
+        <v>17996</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>101559</v>
+        <v>102207</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>88235</v>
+        <v>87249</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>75970</v>
+        <v>77074</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>69052</v>
+        <v>70466</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>133971</v>
+        <v>134014</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>99859</v>
+        <v>99982</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>95071</v>
+        <v>94609</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>92390</v>
+        <v>95542</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>47721</v>
+        <v>48001</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26757</v>
+        <v>26755</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31119</v>
+        <v>32217</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>37831</v>
+        <v>38992</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>143630</v>
+        <v>145553</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>127989</v>
+        <v>128944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>116236</v>
+        <v>117461</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>99061</v>
+        <v>98295</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>180340</v>
+        <v>181422</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>144597</v>
+        <v>141691</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>140216</v>
+        <v>138493</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>127533</v>
+        <v>131130</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17838</v>
+        <v>18044</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6486</v>
+        <v>6955</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12266</v>
+        <v>12561</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>25158</v>
+        <v>25334</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>96148</v>
+        <v>96521</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>82030</v>
+        <v>81391</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>53927</v>
+        <v>53267</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>93148</v>
+        <v>95527</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>119190</v>
+        <v>121135</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>94571</v>
+        <v>91188</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>73217</v>
+        <v>72945</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>125899</v>
+        <v>126674</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39087</v>
+        <v>38193</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20301</v>
+        <v>21920</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30268</v>
+        <v>31459</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>46755</v>
+        <v>47235</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>136963</v>
+        <v>137708</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>121233</v>
+        <v>121614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>87638</v>
+        <v>88235</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>125881</v>
+        <v>126636</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>164958</v>
+        <v>168192</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>134136</v>
+        <v>132853</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>111880</v>
+        <v>110748</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>164640</v>
+        <v>166534</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16398</v>
+        <v>15706</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3014</v>
+        <v>3125</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2262</v>
+        <v>2518</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20557</v>
+        <v>20088</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>59211</v>
+        <v>59080</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>42602</v>
+        <v>43366</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>22661</v>
+        <v>23236</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>82305</v>
+        <v>81415</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>81021</v>
+        <v>80956</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>50366</v>
+        <v>51093</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>28624</v>
+        <v>29724</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>105735</v>
+        <v>105588</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35978</v>
+        <v>37103</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14522</v>
+        <v>15970</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14082</v>
+        <v>13027</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>42060</v>
+        <v>41570</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>91760</v>
+        <v>91452</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>72242</v>
+        <v>73108</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>48082</v>
+        <v>49423</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>111469</v>
+        <v>111403</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>119813</v>
+        <v>120210</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>82495</v>
+        <v>82921</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>55503</v>
+        <v>56754</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>143938</v>
+        <v>141635</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6085</v>
+        <v>6483</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2061</v>
+        <v>2072</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31084</v>
+        <v>32220</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>31569</v>
+        <v>31981</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>22321</v>
+        <v>22756</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8605</v>
+        <v>8861</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>98526</v>
+        <v>97045</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>42001</v>
+        <v>42519</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>29033</v>
+        <v>27000</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10938</v>
+        <v>11032</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>137160</v>
+        <v>134170</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20297</v>
+        <v>21142</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11922</v>
+        <v>11742</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11580</v>
+        <v>10684</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>55742</v>
+        <v>56273</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>56866</v>
+        <v>58172</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>47104</v>
+        <v>49529</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>27229</v>
+        <v>27278</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>131639</v>
+        <v>128795</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>71574</v>
+        <v>70321</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>56826</v>
+        <v>53171</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>33097</v>
+        <v>32650</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>176951</v>
+        <v>175314</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>80558</v>
+        <v>79165</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>28272</v>
+        <v>27298</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>39382</v>
+        <v>38793</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>111962</v>
+        <v>112477</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>320216</v>
+        <v>321581</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>267625</v>
+        <v>265614</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>184257</v>
+        <v>188639</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>369623</v>
+        <v>370089</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>411252</v>
+        <v>406636</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>302837</v>
+        <v>301058</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>233664</v>
+        <v>231954</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>497824</v>
+        <v>496363</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>118414</v>
+        <v>118897</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>55657</v>
+        <v>56403</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>67151</v>
+        <v>66343</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>156961</v>
+        <v>156342</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>394783</v>
+        <v>391156</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>335147</v>
+        <v>332799</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>248109</v>
+        <v>249344</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>434896</v>
+        <v>432531</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>494148</v>
+        <v>491042</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>373569</v>
+        <v>377244</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>303764</v>
+        <v>301333</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>574720</v>
+        <v>571714</v>
       </c>
     </row>
     <row r="24">
